--- a/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 1 (40, 15, 6, 37, 25)/Ableson 5 (20, 47, 6, 28, 3)/NCDE_32nodes_Uniform0.05Virtual_Nelson(40, 15, 6, 37, 25)_Ableson(20, 47, 6, 28, 3)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 1 (40, 15, 6, 37, 25)/Ableson 5 (20, 47, 6, 28, 3)/NCDE_32nodes_Uniform0.05Virtual_Nelson(40, 15, 6, 37, 25)_Ableson(20, 47, 6, 28, 3)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9999999999916707</v>
+        <v>0.9999999999915534</v>
       </c>
       <c r="E2">
-        <v>0.9999999999916707</v>
+        <v>0.9999999999915534</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.9999998094637254</v>
+        <v>0.9999998040056253</v>
       </c>
       <c r="E3">
-        <v>0.9999998094637254</v>
+        <v>0.9999998040056253</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.3730293898862572</v>
+        <v>0.370677866201541</v>
       </c>
       <c r="E4">
-        <v>0.3730293898862572</v>
+        <v>0.370677866201541</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.99703694218901</v>
+        <v>0.9970115336646616</v>
       </c>
       <c r="E6">
-        <v>0.99703694218901</v>
+        <v>0.9970115336646616</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -523,13 +523,13 @@
         <v>11</v>
       </c>
       <c r="C7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.9999994825947335</v>
+        <v>0.2484036296847743</v>
       </c>
       <c r="E7">
-        <v>5.174052665202211E-07</v>
+        <v>0.7515963703152256</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9999994273937213</v>
+        <v>0.9999999966082147</v>
       </c>
       <c r="E8">
-        <v>5.726062787259067E-07</v>
+        <v>3.39178529706885E-09</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9999998196605492</v>
+        <v>0.9999994615271761</v>
       </c>
       <c r="E9">
-        <v>1.803394508170797E-07</v>
+        <v>5.384728238855274E-07</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.9999994204289715</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>5.795710285028122E-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,16 +582,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9999997660211718</v>
+        <v>0.9999999999999951</v>
       </c>
       <c r="E11">
-        <v>2.339788282013089E-07</v>
+        <v>4.884981308350689E-15</v>
       </c>
       <c r="F11">
-        <v>9.342867851257324</v>
+        <v>9.469118118286133</v>
       </c>
       <c r="G11">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -619,10 +619,10 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.9999999877856002</v>
+        <v>0.9999999867922651</v>
       </c>
       <c r="E13">
-        <v>0.9999999877856002</v>
+        <v>0.9999999867922651</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -633,10 +633,10 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0.3971069147920401</v>
+        <v>0.3920504207009849</v>
       </c>
       <c r="E14">
-        <v>0.3971069147920401</v>
+        <v>0.3920504207009849</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.9997181460409853</v>
+        <v>0.9997111999204039</v>
       </c>
       <c r="E16">
-        <v>0.9997181460409853</v>
+        <v>0.9997111999204039</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -672,13 +672,13 @@
         <v>11</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>0.9999999996193247</v>
+        <v>0.01493643850081175</v>
       </c>
       <c r="E17">
-        <v>3.80675269084918E-10</v>
+        <v>0.9850635614991883</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -689,10 +689,10 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>0.9999999995485103</v>
+        <v>0.9999999999973488</v>
       </c>
       <c r="E18">
-        <v>4.51489734487609E-10</v>
+        <v>2.651212582804874E-12</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -703,10 +703,10 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>0.9999999999369318</v>
+        <v>0.9999999995463422</v>
       </c>
       <c r="E19">
-        <v>6.306821731527634E-11</v>
+        <v>4.53657778010097E-10</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -717,10 +717,10 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>0.9999999995381248</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>4.618752047491625E-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -731,16 +731,16 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>0.9999999999030829</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>9.691714097925797E-11</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>12.5195255279541</v>
+        <v>12.90282440185547</v>
       </c>
       <c r="G21">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
